--- a/documents/다머니_데이터 테이블_v1.2.xlsx
+++ b/documents/다머니_데이터 테이블_v1.2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitProjects\Damoney_Git\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="5"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <sheet name="대사 목록" sheetId="10" r:id="rId7"/>
     <sheet name="남은 작업" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="386">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,46 +1007,6 @@
   </si>
   <si>
     <t>progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1000,1001,1002,1003,1004,1007,1008,1009,2003)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1001,1002,1003,1004,1005,1007,1008,1009,2001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1001,1004,1005,1006,1007,1008,1009,2001,2002)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1002,1003,1004,1005,1006,1007,1008,2002,2004)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1000,1001,1002,1003,1004,1007,1008,2001,2003)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1003,1004,1007,1008,1009,2003,2002,2004,3001)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1002,1003,1007,1008,1009,2001,2002,2003,3002)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1002,1003,1007,1001,1008,2002,2004,2001,3003)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1001,1004,1008,2003,2002,2004,3001,3002,3003)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1000,1002,1007,1009,2003,2002,2004,3001,3002)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1332,6 +1297,177 @@
   </si>
   <si>
     <t>섬진강 메뚜기 쌀 20KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선이어폰 슈피겐 레가토 아크</t>
+  </si>
+  <si>
+    <t>아모레퍼시픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈피겐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자 전자레인지 20l</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노스페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노스페이스 남성 패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노스페이스 여성 패딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LG </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">핸디스틱 무선 청소기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG게이밍노트북</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자 드럼 세탁기 14KG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이슨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선 청소기 V8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시 8+ 64G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sk2 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK-II LXP 풀 라인업 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이폰 x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIOS 양문형 냉장고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라벨루쏘 토트 백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TV 곡면형 65인치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가죽 미니 탑 핸들 백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래식 블랙 캐비어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUCCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APPLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 스토닉 자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기아자동차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 우유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1001,1002,1003,1004,1007,1008,1009,2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1002,1003,1004,1005,1007,1008,1009,2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1001,1002,1003,1004,1007,1008,2001,2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1003,1004,1005,1006,1007,1008,2002,2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1004,1005,1006,1007,1008,1009,2001,2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003,1004,1007,1008,1009,2003,2002,2004,3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1003,1007,1008,1009,2001,2002,2003,3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002,1003,1007,1001,1008,2002,2004,2001,3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1002,1007,1009,2003,2002,2004,3001,3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001,1004,1008,2003,2002,2004,3001,3002,3003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1358,143 +1494,105 @@
       </rPr>
       <t>종 기초세트</t>
     </r>
-  </si>
-  <si>
-    <t>무선이어폰 슈피겐 레가토 아크</t>
-  </si>
-  <si>
-    <t>아모레퍼시픽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈피겐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG전자 전자레인지 20l</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노스페이스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노스페이스 남성 패딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노스페이스 여성 패딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LG </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">핸디스틱 무선 청소기 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성 노트북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG게이밍노트북</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자 드럼 세탁기 14KG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이슨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무선 청소기 V8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤럭시 8+ 64G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">sk2 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SK-II LXP 풀 라인업 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이폰 x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DIOS 양문형 냉장고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라벨루쏘 토트 백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TV 곡면형 65인치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가죽 미니 탑 핸들 백</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클래식 블랙 캐비어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUCCI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APPLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017 스토닉 자동차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기아자동차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나 우유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1816,7 +1914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1955,19 +2053,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1983,9 +2093,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2119,6 +2229,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE52-45EA-B507-20CEEE477D24}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2128,7 +2243,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="84119040"/>
         <c:axId val="81355328"/>
@@ -2199,7 +2313,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2357,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2287,7 +2401,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2445,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2489,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,7 +2533,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2577,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2507,7 +2621,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2665,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2595,7 +2709,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2753,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2797,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2727,7 +2841,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2885,7 @@
         <xdr:cNvPr id="15" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2959,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +3003,7 @@
         <xdr:cNvPr id="17" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +3047,7 @@
         <xdr:cNvPr id="18" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +3093,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3009,7 +3129,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3290,7 +3416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5773,21 +5899,21 @@
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46" t="s">
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46" t="s">
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="39" t="s">
@@ -6191,18 +6317,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M44"/>
+  <dimension ref="B2:N44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F8" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="4.375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
@@ -6210,32 +6336,33 @@
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="19.625" customWidth="1"/>
     <col min="11" max="11" width="38.875" customWidth="1"/>
-    <col min="12" max="12" width="19.625" customWidth="1"/>
-    <col min="13" max="13" width="57.875" customWidth="1"/>
+    <col min="12" max="12" width="19.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="57.875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="123.375" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="31.5">
+    <row r="2" spans="2:14" ht="31.5">
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="6.75" customHeight="1">
+    <row r="3" spans="2:14" ht="6.75" customHeight="1">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:14">
       <c r="B4" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:14">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:14">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:14">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -6271,7 +6398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:14">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -6309,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="17.25" thickBot="1">
+    <row r="9" spans="2:14" ht="17.25" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -6347,7 +6474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="17.25" thickTop="1">
+    <row r="10" spans="2:14" ht="17.25" thickTop="1">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -6356,10 +6483,10 @@
         <v>234</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G10" s="18">
         <v>1</v>
@@ -6367,23 +6494,27 @@
       <c r="H10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="18">
-        <v>0</v>
+      <c r="I10" s="51" t="s">
+        <v>385</v>
       </c>
       <c r="J10" s="19" t="s">
         <v>86</v>
       </c>
       <c r="K10" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="M10" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
+      <c r="N10" s="50" t="str">
+        <f>"bonusItemInfo.push(createBonusItemInfo("&amp;C10&amp;", '"&amp;F10&amp;"', '"&amp;E10&amp;"', "&amp;G10&amp;", '/images/bonus/b"&amp;I10&amp;".png', ["&amp;K10&amp;"]));"</f>
+        <v>bonusItemInfo.push(createBonusItemInfo(0, '맥심 모카커피', '맥심', 1, '/images/bonus/b00.png', [1000,1001,1002,1003,1004,1007,1008,1009,2003]));</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17.25" thickBot="1">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -6392,10 +6523,10 @@
         <v>234</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G11" s="29">
         <v>1</v>
@@ -6403,21 +6534,25 @@
       <c r="H11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="22">
-        <v>0</v>
+      <c r="I11" s="52" t="s">
+        <v>356</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>243</v>
+        <v>346</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="2:13">
+      <c r="N11" s="50" t="str">
+        <f t="shared" ref="N11:N39" si="0">"bonusItemInfo.push(createBonusItemInfo("&amp;C11&amp;", '"&amp;F11&amp;"', '"&amp;E11&amp;"', "&amp;G11&amp;", '/images/bonus/b"&amp;I11&amp;".png', ["&amp;K11&amp;"]));"</f>
+        <v>bonusItemInfo.push(createBonusItemInfo(1, '김혜자 돈까스 치킨 도시락', 'YouUs', 1, '/images/bonus/b01.png', [1001,1002,1003,1004,1005,1007,1008,1009,2001]));</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="17.25" thickTop="1">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -6426,10 +6561,10 @@
         <v>234</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G12" s="29">
         <v>1</v>
@@ -6437,21 +6572,25 @@
       <c r="H12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="22">
-        <v>0</v>
+      <c r="I12" s="51" t="s">
+        <v>357</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="2:13">
+      <c r="N12" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(2, '바나나 우유', '빙그레', 1, '/images/bonus/b02.png', [1000,1001,1002,1003,1004,1007,1008,2001,2003]));</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17.25" thickBot="1">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -6460,10 +6599,10 @@
         <v>234</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G13" s="22">
         <v>2</v>
@@ -6471,21 +6610,25 @@
       <c r="H13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="22">
-        <v>0</v>
+      <c r="I13" s="52" t="s">
+        <v>358</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>245</v>
+        <v>348</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="2:13">
+      <c r="N13" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(3, '영화 관람권 2매', '메가박스', 2, '/images/bonus/b03.png', [1002,1003,1004,1005,1006,1007,1008,2002,2004]));</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17.25" thickTop="1">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -6494,10 +6637,10 @@
         <v>234</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G14" s="22">
         <v>2</v>
@@ -6505,21 +6648,25 @@
       <c r="H14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="22">
-        <v>0</v>
+      <c r="I14" s="51" t="s">
+        <v>359</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="N14" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(4, '뿌링클 콜라 세트', 'BHC', 2, '/images/bonus/b04.png', [1001,1004,1005,1006,1007,1008,1009,2001,2002]));</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -6528,10 +6675,10 @@
         <v>234</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="G15" s="29">
         <v>3</v>
@@ -6539,21 +6686,25 @@
       <c r="H15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="22">
-        <v>0</v>
+      <c r="I15" s="52" t="s">
+        <v>360</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>247</v>
+        <v>350</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="2:13">
+      <c r="N15" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(5, '스트로베리 생크림케이크', '투썸 플레이스', 3, '/images/bonus/b05.png', [1003,1004,1007,1008,1009,2003,2002,2004,3001]));</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="17.25" thickTop="1">
       <c r="B16" s="22"/>
       <c r="C16" s="22">
         <v>6</v>
@@ -6562,10 +6713,10 @@
         <v>234</v>
       </c>
       <c r="E16" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>308</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>318</v>
       </c>
       <c r="G16" s="25">
         <v>3</v>
@@ -6573,21 +6724,25 @@
       <c r="H16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="22">
-        <v>0</v>
+      <c r="I16" s="51" t="s">
+        <v>361</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>248</v>
+        <v>351</v>
       </c>
       <c r="L16" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="2:13">
+      <c r="N16" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(6, '화이트골드 320T/커피/커피믹스', '맥심', 3, '/images/bonus/b06.png', [1002,1003,1007,1008,1009,2001,2002,2003,3002]));</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="17.25" thickBot="1">
       <c r="B17" s="26"/>
       <c r="C17" s="22">
         <v>7</v>
@@ -6596,10 +6751,10 @@
         <v>234</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G17" s="27">
         <v>4</v>
@@ -6607,21 +6762,25 @@
       <c r="H17" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="22">
-        <v>0</v>
+      <c r="I17" s="52" t="s">
+        <v>362</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="L17" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="N17" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(7, '섬진강 메뚜기 쌀 20KG', '농협', 4, '/images/bonus/b07.png', [1002,1003,1007,1001,1008,2002,2004,2001,3003]));</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="17.25" thickTop="1">
       <c r="B18" s="26"/>
       <c r="C18" s="22">
         <v>8</v>
@@ -6630,10 +6789,10 @@
         <v>234</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G18" s="27">
         <v>5</v>
@@ -6641,21 +6800,25 @@
       <c r="H18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="27">
-        <v>-1</v>
+      <c r="I18" s="51" t="s">
+        <v>363</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="L18" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="2:13">
+      <c r="N18" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(8, '준비중', '준비중', 5, '/images/bonus/b08.png', [1000,1002,1007,1009,2003,2002,2004,3001,3002]));</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17.25" thickBot="1">
       <c r="B19" s="26"/>
       <c r="C19" s="22">
         <v>9</v>
@@ -6664,10 +6827,10 @@
         <v>234</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G19" s="27">
         <v>6</v>
@@ -6675,21 +6838,25 @@
       <c r="H19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="27">
-        <v>-1</v>
+      <c r="I19" s="52" t="s">
+        <v>364</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L19" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="2:13">
+      <c r="N19" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(9, '준비중', '준비중', 6, '/images/bonus/b09.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17.25" thickTop="1">
       <c r="B20" s="26"/>
       <c r="C20" s="22">
         <v>10</v>
@@ -6698,10 +6865,10 @@
         <v>234</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="G20" s="27">
         <v>7</v>
@@ -6709,21 +6876,25 @@
       <c r="H20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="27">
-        <v>-1</v>
+      <c r="I20" s="51" t="s">
+        <v>365</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L20" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="N20" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(10, '준비중', '준비중', 7, '/images/bonus/b10.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="17.25" thickBot="1">
       <c r="B21" s="26"/>
       <c r="C21" s="22">
         <v>11</v>
@@ -6732,10 +6903,10 @@
         <v>234</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="48" t="s">
-        <v>322</v>
+        <v>313</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>355</v>
       </c>
       <c r="G21" s="27">
         <v>8</v>
@@ -6743,21 +6914,25 @@
       <c r="H21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="22">
-        <v>0</v>
+      <c r="I21" s="52" t="s">
+        <v>366</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L21" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="2:13">
+      <c r="N21" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(11, '설화수 자음2종 기초세트', '아모레퍼시픽', 8, '/images/bonus/b11.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="17.25" thickTop="1">
       <c r="B22" s="26"/>
       <c r="C22" s="22">
         <v>12</v>
@@ -6766,10 +6941,10 @@
         <v>234</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>312</v>
       </c>
       <c r="G22" s="27">
         <v>8</v>
@@ -6777,21 +6952,25 @@
       <c r="H22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="22">
-        <v>0</v>
+      <c r="I22" s="51" t="s">
+        <v>367</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L22" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="2:13">
+      <c r="N22" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(12, '무선이어폰 슈피겐 레가토 아크', '슈피겐', 8, '/images/bonus/b12.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="17.25" thickBot="1">
       <c r="B23" s="26"/>
       <c r="C23" s="22">
         <v>13</v>
@@ -6800,10 +6979,10 @@
         <v>234</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G23" s="27">
         <v>9</v>
@@ -6811,21 +6990,25 @@
       <c r="H23" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="22">
-        <v>0</v>
+      <c r="I23" s="52" t="s">
+        <v>368</v>
       </c>
       <c r="J23" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="N23" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(13, 'LG전자 전자레인지 20l', 'LG전자', 9, '/images/bonus/b13.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="17.25" thickTop="1">
       <c r="B24" s="26"/>
       <c r="C24" s="22">
         <v>14</v>
@@ -6834,10 +7017,10 @@
         <v>234</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G24" s="27">
         <v>10</v>
@@ -6845,21 +7028,25 @@
       <c r="H24" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="22">
-        <v>0</v>
+      <c r="I24" s="51" t="s">
+        <v>369</v>
       </c>
       <c r="J24" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L24" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="2:13">
+      <c r="N24" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(14, '노스페이스 남성 패딩', '노스페이스', 10, '/images/bonus/b14.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" thickBot="1">
       <c r="B25" s="26"/>
       <c r="C25" s="22">
         <v>15</v>
@@ -6868,10 +7055,10 @@
         <v>234</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G25" s="30">
         <v>10</v>
@@ -6879,21 +7066,25 @@
       <c r="H25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="22">
-        <v>0</v>
+      <c r="I25" s="52" t="s">
+        <v>370</v>
       </c>
       <c r="J25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L25" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="2:13">
+      <c r="N25" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(15, '노스페이스 여성 패딩', '노스페이스', 10, '/images/bonus/b15.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="17.25" thickTop="1">
       <c r="B26" s="26"/>
       <c r="C26" s="22">
         <v>16</v>
@@ -6902,10 +7093,10 @@
         <v>234</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G26" s="27">
         <v>11</v>
@@ -6913,21 +7104,25 @@
       <c r="H26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="22">
-        <v>0</v>
+      <c r="I26" s="51" t="s">
+        <v>371</v>
       </c>
       <c r="J26" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L26" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="N26" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(16, '핸디스틱 무선 청소기 ', 'LG ', 11, '/images/bonus/b16.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="17.25" thickBot="1">
       <c r="B27" s="26"/>
       <c r="C27" s="22">
         <v>17</v>
@@ -6936,10 +7131,10 @@
         <v>234</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G27" s="27">
         <v>12</v>
@@ -6947,21 +7142,25 @@
       <c r="H27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="22">
-        <v>0</v>
+      <c r="I27" s="52" t="s">
+        <v>372</v>
       </c>
       <c r="J27" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="2:13">
+      <c r="N27" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(17, '삼성 노트북', '삼성', 12, '/images/bonus/b17.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="17.25" thickTop="1">
       <c r="B28" s="26"/>
       <c r="C28" s="22">
         <v>18</v>
@@ -6970,10 +7169,10 @@
         <v>234</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G28" s="27">
         <v>13</v>
@@ -6981,21 +7180,25 @@
       <c r="H28" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="22">
-        <v>0</v>
+      <c r="I28" s="51" t="s">
+        <v>373</v>
       </c>
       <c r="J28" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L28" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="2:13">
+      <c r="N28" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(18, 'LG게이밍노트북', 'LG', 13, '/images/bonus/b18.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="17.25" thickBot="1">
       <c r="B29" s="26"/>
       <c r="C29" s="22">
         <v>19</v>
@@ -7004,10 +7207,10 @@
         <v>234</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G29" s="27">
         <v>14</v>
@@ -7015,21 +7218,25 @@
       <c r="H29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="22">
-        <v>0</v>
+      <c r="I29" s="52" t="s">
+        <v>374</v>
       </c>
       <c r="J29" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="2:13">
+      <c r="N29" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(19, '전자 드럼 세탁기 14KG', 'LG', 14, '/images/bonus/b19.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="17.25" thickTop="1">
       <c r="B30" s="26"/>
       <c r="C30" s="22">
         <v>20</v>
@@ -7038,10 +7245,10 @@
         <v>234</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G30" s="27">
         <v>15</v>
@@ -7049,21 +7256,25 @@
       <c r="H30" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="22">
-        <v>0</v>
+      <c r="I30" s="51" t="s">
+        <v>375</v>
       </c>
       <c r="J30" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L30" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="2:13">
+      <c r="N30" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(20, '무선 청소기 V8', '다이슨', 15, '/images/bonus/b20.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="17.25" thickBot="1">
       <c r="B31" s="26"/>
       <c r="C31" s="22">
         <v>21</v>
@@ -7072,10 +7283,10 @@
         <v>234</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G31" s="27">
         <v>15</v>
@@ -7083,21 +7294,25 @@
       <c r="H31" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="22">
-        <v>0</v>
+      <c r="I31" s="52" t="s">
+        <v>376</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L31" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="2:13">
+      <c r="N31" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(21, '갤럭시 8+ 64G', '삼성', 15, '/images/bonus/b21.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="17.25" thickTop="1">
       <c r="B32" s="26"/>
       <c r="C32" s="22">
         <v>22</v>
@@ -7106,10 +7321,10 @@
         <v>234</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G32" s="27">
         <v>16</v>
@@ -7117,21 +7332,25 @@
       <c r="H32" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="22">
-        <v>0</v>
+      <c r="I32" s="51" t="s">
+        <v>377</v>
       </c>
       <c r="J32" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="2:13">
+      <c r="N32" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(22, 'SK-II LXP 풀 라인업 세트', 'sk2 ', 16, '/images/bonus/b22.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="17.25" thickBot="1">
       <c r="B33" s="26"/>
       <c r="C33" s="22">
         <v>23</v>
@@ -7140,10 +7359,10 @@
         <v>234</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="G33" s="27">
         <v>16</v>
@@ -7151,21 +7370,25 @@
       <c r="H33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="22">
-        <v>0</v>
+      <c r="I33" s="52" t="s">
+        <v>378</v>
       </c>
       <c r="J33" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K33" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L33" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="2:13">
+      <c r="N33" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(23, '아이폰 x', 'APPLE', 16, '/images/bonus/b23.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="17.25" thickTop="1">
       <c r="B34" s="26"/>
       <c r="C34" s="22">
         <v>24</v>
@@ -7174,10 +7397,10 @@
         <v>234</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G34" s="27">
         <v>16</v>
@@ -7185,21 +7408,25 @@
       <c r="H34" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="22">
-        <v>0</v>
+      <c r="I34" s="51" t="s">
+        <v>379</v>
       </c>
       <c r="J34" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K34" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L34" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="2:13">
+      <c r="N34" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(24, 'DIOS 양문형 냉장고', 'LG', 16, '/images/bonus/b24.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="17.25" thickBot="1">
       <c r="B35" s="26"/>
       <c r="C35" s="22">
         <v>25</v>
@@ -7208,10 +7435,10 @@
         <v>234</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G35" s="27">
         <v>17</v>
@@ -7219,21 +7446,25 @@
       <c r="H35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="22">
-        <v>0</v>
+      <c r="I35" s="52" t="s">
+        <v>380</v>
       </c>
       <c r="J35" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K35" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L35" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="2:13">
+      <c r="N35" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(25, '라벨루쏘 토트 백', 'GUCCI', 17, '/images/bonus/b25.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="17.25" thickTop="1">
       <c r="B36" s="26"/>
       <c r="C36" s="22">
         <v>26</v>
@@ -7242,10 +7473,10 @@
         <v>234</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G36" s="27">
         <v>17</v>
@@ -7253,21 +7484,25 @@
       <c r="H36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="22">
-        <v>0</v>
+      <c r="I36" s="51" t="s">
+        <v>381</v>
       </c>
       <c r="J36" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K36" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L36" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="2:13">
+      <c r="N36" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(26, 'TV 곡면형 65인치', '삼성', 17, '/images/bonus/b26.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="17.25" thickBot="1">
       <c r="B37" s="26"/>
       <c r="C37" s="22">
         <v>27</v>
@@ -7276,10 +7511,10 @@
         <v>234</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G37" s="27">
         <v>18</v>
@@ -7287,21 +7522,25 @@
       <c r="H37" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="22">
-        <v>0</v>
+      <c r="I37" s="52" t="s">
+        <v>382</v>
       </c>
       <c r="J37" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K37" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L37" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="2:13">
+      <c r="N37" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(27, '가죽 미니 탑 핸들 백', 'GUCCI', 18, '/images/bonus/b27.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="17.25" thickTop="1">
       <c r="B38" s="26"/>
       <c r="C38" s="22">
         <v>28</v>
@@ -7310,10 +7549,10 @@
         <v>234</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G38" s="27">
         <v>19</v>
@@ -7321,21 +7560,25 @@
       <c r="H38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="22">
-        <v>0</v>
+      <c r="I38" s="51" t="s">
+        <v>383</v>
       </c>
       <c r="J38" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K38" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L38" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="2:13">
+      <c r="N38" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(28, '클래식 블랙 캐비어', 'CHANEL', 19, '/images/bonus/b28.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" s="26"/>
       <c r="C39" s="22">
         <v>29</v>
@@ -7344,10 +7587,10 @@
         <v>234</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F39" s="27" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G39" s="27">
         <v>20</v>
@@ -7355,21 +7598,25 @@
       <c r="H39" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="22">
-        <v>0</v>
+      <c r="I39" s="52" t="s">
+        <v>384</v>
       </c>
       <c r="J39" s="23" t="s">
         <v>86</v>
       </c>
       <c r="K39" s="23" t="s">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="L39" s="23" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="2:13">
+      <c r="N39" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>bonusItemInfo.push(createBonusItemInfo(29, '2017 스토닉 자동차', '기아자동차', 20, '/images/bonus/b29.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" s="26"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -7383,7 +7630,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:14">
       <c r="B41" s="26"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -7397,7 +7644,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:14">
       <c r="B42" s="26"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -7411,7 +7658,7 @@
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:14">
       <c r="B43" s="26"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -7425,7 +7672,7 @@
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:14">
       <c r="B44" s="26"/>
       <c r="C44" s="27" t="s">
         <v>114</v>
@@ -7456,7 +7703,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7482,82 +7729,82 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="39" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="47" t="s">
-        <v>294</v>
+      <c r="B8" s="48" t="s">
+        <v>284</v>
       </c>
       <c r="C8" s="33">
         <v>1</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="33">
         <v>2</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="33">
         <v>3</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="33">
         <v>4</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="33">
         <v>5</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="33" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="33" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -7590,341 +7837,341 @@
   <sheetData>
     <row r="2" spans="2:6" ht="26.25">
       <c r="B2" s="40" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="32" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="47" t="s">
-        <v>259</v>
+      <c r="B5" s="48" t="s">
+        <v>249</v>
       </c>
       <c r="C5" s="42">
         <v>1</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="42">
         <v>2</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>135</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="42">
         <v>3</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="42">
         <v>4</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="27">
-      <c r="B9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="42">
         <v>5</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="42">
         <v>6</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="42">
         <v>7</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="27">
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="42">
         <v>8</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="67.5">
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="42">
         <v>9</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="42">
         <v>10</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="27">
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="42">
         <v>11</v>
       </c>
       <c r="D15" s="44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="42">
         <v>12</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="42">
         <v>13</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="42">
         <v>14</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="40.5">
-      <c r="B19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="42">
         <v>15</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="27">
-      <c r="B20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="42">
         <v>16</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="42">
         <v>17</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="42">
         <v>18</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>135</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="42">
         <v>19</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>135</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="42">
         <v>20</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>135</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="42">
         <v>21</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/documents/다머니_데이터 테이블_v1.2.xlsx
+++ b/documents/다머니_데이터 테이블_v1.2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitProjects\Damoney_Git\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25980" windowHeight="12990" firstSheet="2" activeTab="5"/>
   </bookViews>
@@ -21,7 +16,7 @@
     <sheet name="대사 목록" sheetId="10" r:id="rId7"/>
     <sheet name="남은 작업" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="416">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1588,11 +1583,131 @@
     <t>00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://auto.naver.com/car/main.nhn?yearsId=119765</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1794493651&amp;trTypeCd=21&amp;trCtgrNo=585021&amp;lCtgrNo=1001307&amp;mCtgrNo=1001808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gucci.com/kr/ko/pr/women/womens-handbags/frame-print-leather-mini-top-handle-bag-p-488667DT98X9176?position=33&amp;listName=Handbags_KR&amp;categoryPath=Women/Womens-Handbags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gunVd2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://display.cjmall.com/p/item/47659127?channelCode=30001001&amp;k=라벨루쏘 442622 A7M0T 1000 구찌 GG&amp;shop_id=2002112507&amp;pic=SEAR____list__goods-001__</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lotteimall.com/goods/viewGoodsDetail.lotte?goods_no=1273380121&amp;NaPm=ct=jaqm03m8|ci=0d1205dca96c236697db09545375dcb76e6aa555|tr=slsl|sn=8|hk=536cedd3a4011687dba03bd1c7611064b8f0e59f&amp;chl_dtl_no=2540914&amp;chl_no=141370#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gBCdPkx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gBGI-4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gBDtXAn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/g7KJfn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gBGC0VK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gwsgff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lotteimall.com/goods/viewGoodsDetail.lotte?goods_no=1229046386&amp;nv_ad=pla&amp;chl_dtl_no=2540914&amp;chl_no=141370#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lotte.com/goods/viewGoodsDetail.lotte?goods_no=432904898&amp;NaPm=ct%3Djaqowoa0%7Cci%3Dc18c1ee7b17723821d24f516c258a1a313f64cc4%7Ctr%3Dligh%7Csn%3D2%7Chk%3Dde9eb6a1dd8eb40643074b5a8dc123dfbda91482</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gmkt.kr/gBCyrc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/spigen/products/2277491667?NaPm=ct%3Djaqp37m8%7Cci%3D72c3aa903ba4a53953bbcaca3a319a379e1f2934%7Ctr%3Dslc%7Csn%3D165941%7Cic%3D%7Chk%3D8c5f81b98d22b10e2df7fffb7b4912402db86058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/beauti-seller/products/2281367034?NaPm=ct%3Djaqnx13k%7Cci%3Deab2eb6de2c4d103a31f11f8cd9dcdfe0b54e4b8%7Ctr%3Dslsl%7Csn%3D601456%7Cic%3D%7Chk%3D860e6ce65a010b246bd14696aab474cefbadedec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.gmarket.co.kr/Item?goodscode=176225394</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.gmarket.co.kr/Item?goodscode=986999816</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.gmarket.co.kr/Item?goodscode=1155407944</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.gmarket.co.kr/Item?goodscode=417514702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://item.gmarket.co.kr/Item?goodscode=954839147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.giftishow.com/brand/brandGoodsDetail.mhows?goods_seq=G00000182379&amp;brand_no=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://midoyoo.blog.me/221142850550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/gifticon/products/2109454621?NaPm=ct%3Djaqpdtk8%7Cci%3Dba21d9c4e05639be6305aace3a1163d2a2614f25%7Ctr%3Dsls%7Csn%3D194555%7Chk%3D56b6e3a1ac8c9beff291f18ba9718c690315d9d3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1927002122&amp;NaPm=ct=jbi8imtk|ci=6069283808207dd4256b6f8d3000543500090c41|tr=slc|sn=17703|hk=d6de51e0dd2075a7e57b85eb0d42bfce52e8aa1e&amp;utm_term=&amp;utm_campaign=%B3%D7%C0%CC%B9%F6pc_%B0%A1%B0%DD%BA%F1%B1%B3%B1%E2%BA%BB&amp;utm_source=%B3%D7%C0%CC%B9%F6_PC_PCS&amp;utm_medium=%B0%A1%B0%DD%BA%F1%B1%B3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.11st.co.kr/product/SellerProductDetail.tmall?method=getSellerProductDetail&amp;prdNo=1854816191&amp;trTypeCd=20&amp;trCtgrNo=585021&amp;lCtgrNo=1001429&amp;mCtgrNo=1002721</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -1914,7 +2029,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2056,12 +2171,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2074,10 +2183,34 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2093,9 +2226,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ko-KR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2229,7 +2362,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE52-45EA-B507-20CEEE477D24}"/>
             </c:ext>
@@ -2243,12 +2376,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84119040"/>
-        <c:axId val="81355328"/>
+        <c:axId val="89952768"/>
+        <c:axId val="85156416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84119040"/>
+        <c:axId val="89952768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81355328"/>
+        <c:crossAx val="85156416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2265,7 +2399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81355328"/>
+        <c:axId val="85156416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,7 +2410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84119040"/>
+        <c:crossAx val="89952768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2313,7 +2447,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB4AC84-D361-46AD-B8CE-C7E24AF6C657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2491,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA71B2E0-EBC2-4447-819F-F374A3266EBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2535,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E363EFB-F49C-4613-8FE3-80118286658D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2579,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A718C39-32A8-4AC3-A64D-6B4F5A4B0A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2623,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D81F825-3675-4600-844F-931C55FC0B23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2667,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{02D10E13-C43A-4A75-8BAC-B413DBEB0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2577,7 +2711,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8D1D0B0-DE83-43BA-BD95-17952CF4DB62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2755,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09A35B1A-FC34-4CF6-A58F-87D8D5BE23CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2799,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD7A195-6A9B-465D-9DBE-EBED7337E5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2843,7 @@
         <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93617D7A-4CA0-41AA-92A6-AA4EAE95BB00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,7 +2887,7 @@
         <xdr:cNvPr id="12" name="그림 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{868C56CE-37EB-40AB-84B9-936BAD24946A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2931,7 @@
         <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{056599D1-107C-4DB3-A515-C13B6C227B18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2975,7 @@
         <xdr:cNvPr id="14" name="그림 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3505F8AB-E628-4EEF-8EA6-C0172DAEC73F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +3019,7 @@
         <xdr:cNvPr id="15" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9AE44AFA-83CB-47E3-9330-D4EF01E52BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,7 +3093,7 @@
         <xdr:cNvPr id="16" name="그림 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9AFD391-675F-41DB-B535-074EC1B6D8F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3137,7 @@
         <xdr:cNvPr id="17" name="그림 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{13E47CC3-E758-44D1-8E4F-D277C5B227B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3181,7 @@
         <xdr:cNvPr id="18" name="그림 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F465371-6EAE-419B-8A80-6D945E5B3CF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3096,7 +3230,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3132,7 +3266,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5899,21 +6033,21 @@
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47" t="s">
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47" t="s">
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
     </row>
     <row r="42" spans="2:14">
       <c r="B42" s="39" t="s">
@@ -6317,10 +6451,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N44"/>
+  <dimension ref="B2:O40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F8" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6331,38 +6465,38 @@
     <col min="4" max="4" width="10.375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="5.25" customWidth="1"/>
+    <col min="7" max="8" width="5.25" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="27.25" customWidth="1"/>
     <col min="12" max="12" width="19.625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="57.875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="123.375" style="49" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="105.5" style="47" customWidth="1"/>
+    <col min="15" max="15" width="123.375" style="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="31.5">
+    <row r="2" spans="2:15" ht="31.5">
       <c r="B2" s="10" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="6.75" customHeight="1">
+    <row r="3" spans="2:15" ht="6.75" customHeight="1">
       <c r="B3" s="10"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:15">
       <c r="B4" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:15">
       <c r="B5" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:15">
       <c r="B6" s="12"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:15">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>65</v>
@@ -6397,8 +6531,11 @@
       <c r="M7" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="N7" s="53" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -6435,8 +6572,11 @@
       <c r="M8" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1">
+      <c r="N8" s="54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17.25" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>4</v>
       </c>
@@ -6473,8 +6613,11 @@
       <c r="M9" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="17.25" thickTop="1">
+      <c r="N9" s="54" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="17.25" thickTop="1">
       <c r="B10" s="18"/>
       <c r="C10" s="18">
         <v>0</v>
@@ -6494,7 +6637,7 @@
       <c r="H10" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="49" t="s">
         <v>385</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -6509,12 +6652,15 @@
       <c r="M10" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="50" t="str">
+      <c r="N10" s="55" t="s">
+        <v>411</v>
+      </c>
+      <c r="O10" s="48" t="str">
         <f>"bonusItemInfo.push(createBonusItemInfo("&amp;C10&amp;", '"&amp;F10&amp;"', '"&amp;E10&amp;"', "&amp;G10&amp;", '/images/bonus/b"&amp;I10&amp;".png', ["&amp;K10&amp;"]));"</f>
         <v>bonusItemInfo.push(createBonusItemInfo(0, '맥심 모카커피', '맥심', 1, '/images/bonus/b00.png', [1000,1001,1002,1003,1004,1007,1008,1009,2003]));</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1">
+    <row r="11" spans="2:15" ht="17.25" thickBot="1">
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>1</v>
@@ -6534,7 +6680,7 @@
       <c r="H11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="50" t="s">
         <v>356</v>
       </c>
       <c r="J11" s="23" t="s">
@@ -6547,12 +6693,15 @@
         <v>242</v>
       </c>
       <c r="M11" s="23"/>
-      <c r="N11" s="50" t="str">
-        <f t="shared" ref="N11:N39" si="0">"bonusItemInfo.push(createBonusItemInfo("&amp;C11&amp;", '"&amp;F11&amp;"', '"&amp;E11&amp;"', "&amp;G11&amp;", '/images/bonus/b"&amp;I11&amp;".png', ["&amp;K11&amp;"]));"</f>
+      <c r="N11" s="55" t="s">
+        <v>412</v>
+      </c>
+      <c r="O11" s="48" t="str">
+        <f t="shared" ref="O11:O39" si="0">"bonusItemInfo.push(createBonusItemInfo("&amp;C11&amp;", '"&amp;F11&amp;"', '"&amp;E11&amp;"', "&amp;G11&amp;", '/images/bonus/b"&amp;I11&amp;".png', ["&amp;K11&amp;"]));"</f>
         <v>bonusItemInfo.push(createBonusItemInfo(1, '김혜자 돈까스 치킨 도시락', 'YouUs', 1, '/images/bonus/b01.png', [1001,1002,1003,1004,1005,1007,1008,1009,2001]));</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="17.25" thickTop="1">
+    <row r="12" spans="2:15" ht="17.25" thickTop="1">
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>2</v>
@@ -6572,7 +6721,7 @@
       <c r="H12" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="49" t="s">
         <v>357</v>
       </c>
       <c r="J12" s="23" t="s">
@@ -6585,12 +6734,15 @@
         <v>242</v>
       </c>
       <c r="M12" s="23"/>
-      <c r="N12" s="50" t="str">
+      <c r="N12" s="55" t="s">
+        <v>413</v>
+      </c>
+      <c r="O12" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(2, '바나나 우유', '빙그레', 1, '/images/bonus/b02.png', [1000,1001,1002,1003,1004,1007,1008,2001,2003]));</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1">
+    <row r="13" spans="2:15" ht="17.25" thickBot="1">
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>3</v>
@@ -6610,7 +6762,7 @@
       <c r="H13" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="50" t="s">
         <v>358</v>
       </c>
       <c r="J13" s="23" t="s">
@@ -6623,12 +6775,15 @@
         <v>242</v>
       </c>
       <c r="M13" s="23"/>
-      <c r="N13" s="50" t="str">
+      <c r="N13" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="O13" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(3, '영화 관람권 2매', '메가박스', 2, '/images/bonus/b03.png', [1002,1003,1004,1005,1006,1007,1008,2002,2004]));</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="17.25" thickTop="1">
+    <row r="14" spans="2:15" ht="17.25" thickTop="1">
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>4</v>
@@ -6648,7 +6803,7 @@
       <c r="H14" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="51" t="s">
+      <c r="I14" s="49" t="s">
         <v>359</v>
       </c>
       <c r="J14" s="23" t="s">
@@ -6661,12 +6816,15 @@
         <v>242</v>
       </c>
       <c r="M14" s="23"/>
-      <c r="N14" s="50" t="str">
+      <c r="N14" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="O14" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(4, '뿌링클 콜라 세트', 'BHC', 2, '/images/bonus/b04.png', [1001,1004,1005,1006,1007,1008,1009,2001,2002]));</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1">
+    <row r="15" spans="2:15" ht="17.25" thickBot="1">
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5</v>
@@ -6686,7 +6844,7 @@
       <c r="H15" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="I15" s="50" t="s">
         <v>360</v>
       </c>
       <c r="J15" s="23" t="s">
@@ -6699,12 +6857,15 @@
         <v>242</v>
       </c>
       <c r="M15" s="23"/>
-      <c r="N15" s="50" t="str">
+      <c r="N15" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="O15" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(5, '스트로베리 생크림케이크', '투썸 플레이스', 3, '/images/bonus/b05.png', [1003,1004,1007,1008,1009,2003,2002,2004,3001]));</v>
       </c>
     </row>
-    <row r="16" spans="2:14" ht="17.25" thickTop="1">
+    <row r="16" spans="2:15" ht="17.25" thickTop="1">
       <c r="B16" s="22"/>
       <c r="C16" s="22">
         <v>6</v>
@@ -6724,7 +6885,7 @@
       <c r="H16" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="49" t="s">
         <v>361</v>
       </c>
       <c r="J16" s="23" t="s">
@@ -6737,12 +6898,15 @@
         <v>242</v>
       </c>
       <c r="M16" s="23"/>
-      <c r="N16" s="50" t="str">
+      <c r="N16" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="O16" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(6, '화이트골드 320T/커피/커피믹스', '맥심', 3, '/images/bonus/b06.png', [1002,1003,1007,1008,1009,2001,2002,2003,3002]));</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="17.25" thickBot="1">
+    <row r="17" spans="2:15" ht="17.25" thickBot="1">
       <c r="B17" s="26"/>
       <c r="C17" s="22">
         <v>7</v>
@@ -6762,7 +6926,7 @@
       <c r="H17" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="50" t="s">
         <v>362</v>
       </c>
       <c r="J17" s="23" t="s">
@@ -6775,12 +6939,15 @@
         <v>242</v>
       </c>
       <c r="M17" s="23"/>
-      <c r="N17" s="50" t="str">
+      <c r="N17" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="O17" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(7, '섬진강 메뚜기 쌀 20KG', '농협', 4, '/images/bonus/b07.png', [1002,1003,1007,1001,1008,2002,2004,2001,3003]));</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="17.25" thickTop="1">
+    <row r="18" spans="2:15" ht="17.25" thickTop="1">
       <c r="B18" s="26"/>
       <c r="C18" s="22">
         <v>8</v>
@@ -6800,7 +6967,7 @@
       <c r="H18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="49" t="s">
         <v>363</v>
       </c>
       <c r="J18" s="23" t="s">
@@ -6813,12 +6980,13 @@
         <v>242</v>
       </c>
       <c r="M18" s="23"/>
-      <c r="N18" s="50" t="str">
+      <c r="N18" s="56"/>
+      <c r="O18" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(8, '준비중', '준비중', 5, '/images/bonus/b08.png', [1000,1002,1007,1009,2003,2002,2004,3001,3002]));</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="17.25" thickBot="1">
+    <row r="19" spans="2:15" ht="17.25" thickBot="1">
       <c r="B19" s="26"/>
       <c r="C19" s="22">
         <v>9</v>
@@ -6838,7 +7006,7 @@
       <c r="H19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="50" t="s">
         <v>364</v>
       </c>
       <c r="J19" s="23" t="s">
@@ -6851,12 +7019,13 @@
         <v>242</v>
       </c>
       <c r="M19" s="23"/>
-      <c r="N19" s="50" t="str">
+      <c r="N19" s="56"/>
+      <c r="O19" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(9, '준비중', '준비중', 6, '/images/bonus/b09.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="17.25" thickTop="1">
+    <row r="20" spans="2:15" ht="17.25" thickTop="1">
       <c r="B20" s="26"/>
       <c r="C20" s="22">
         <v>10</v>
@@ -6876,7 +7045,7 @@
       <c r="H20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="51" t="s">
+      <c r="I20" s="49" t="s">
         <v>365</v>
       </c>
       <c r="J20" s="23" t="s">
@@ -6889,12 +7058,13 @@
         <v>242</v>
       </c>
       <c r="M20" s="23"/>
-      <c r="N20" s="50" t="str">
+      <c r="N20" s="56"/>
+      <c r="O20" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(10, '준비중', '준비중', 7, '/images/bonus/b10.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="17.25" thickBot="1">
+    <row r="21" spans="2:15" ht="17.25" thickBot="1">
       <c r="B21" s="26"/>
       <c r="C21" s="22">
         <v>11</v>
@@ -6914,7 +7084,7 @@
       <c r="H21" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="52" t="s">
+      <c r="I21" s="50" t="s">
         <v>366</v>
       </c>
       <c r="J21" s="23" t="s">
@@ -6927,12 +7097,15 @@
         <v>242</v>
       </c>
       <c r="M21" s="23"/>
-      <c r="N21" s="50" t="str">
+      <c r="N21" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="O21" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(11, '설화수 자음2종 기초세트', '아모레퍼시픽', 8, '/images/bonus/b11.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="17.25" thickTop="1">
+    <row r="22" spans="2:15" ht="17.25" thickTop="1">
       <c r="B22" s="26"/>
       <c r="C22" s="22">
         <v>12</v>
@@ -6952,7 +7125,7 @@
       <c r="H22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="51" t="s">
+      <c r="I22" s="49" t="s">
         <v>367</v>
       </c>
       <c r="J22" s="23" t="s">
@@ -6965,12 +7138,15 @@
         <v>242</v>
       </c>
       <c r="M22" s="23"/>
-      <c r="N22" s="50" t="str">
+      <c r="N22" s="55" t="s">
+        <v>404</v>
+      </c>
+      <c r="O22" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(12, '무선이어폰 슈피겐 레가토 아크', '슈피겐', 8, '/images/bonus/b12.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1">
+    <row r="23" spans="2:15" ht="17.25" thickBot="1">
       <c r="B23" s="26"/>
       <c r="C23" s="22">
         <v>13</v>
@@ -6990,7 +7166,7 @@
       <c r="H23" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I23" s="52" t="s">
+      <c r="I23" s="50" t="s">
         <v>368</v>
       </c>
       <c r="J23" s="23" t="s">
@@ -7003,12 +7179,15 @@
         <v>242</v>
       </c>
       <c r="M23" s="23"/>
-      <c r="N23" s="50" t="str">
+      <c r="N23" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="O23" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(13, 'LG전자 전자레인지 20l', 'LG전자', 9, '/images/bonus/b13.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="17.25" thickTop="1">
+    <row r="24" spans="2:15" ht="17.25" thickTop="1">
       <c r="B24" s="26"/>
       <c r="C24" s="22">
         <v>14</v>
@@ -7028,7 +7207,7 @@
       <c r="H24" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="51" t="s">
+      <c r="I24" s="49" t="s">
         <v>369</v>
       </c>
       <c r="J24" s="23" t="s">
@@ -7041,12 +7220,15 @@
         <v>242</v>
       </c>
       <c r="M24" s="23"/>
-      <c r="N24" s="50" t="str">
+      <c r="N24" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="O24" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(14, '노스페이스 남성 패딩', '노스페이스', 10, '/images/bonus/b14.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="17.25" thickBot="1">
+    <row r="25" spans="2:15" ht="17.25" thickBot="1">
       <c r="B25" s="26"/>
       <c r="C25" s="22">
         <v>15</v>
@@ -7066,7 +7248,7 @@
       <c r="H25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="52" t="s">
+      <c r="I25" s="50" t="s">
         <v>370</v>
       </c>
       <c r="J25" s="23" t="s">
@@ -7079,12 +7261,15 @@
         <v>242</v>
       </c>
       <c r="M25" s="23"/>
-      <c r="N25" s="50" t="str">
+      <c r="N25" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="O25" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(15, '노스페이스 여성 패딩', '노스페이스', 10, '/images/bonus/b15.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="17.25" thickTop="1">
+    <row r="26" spans="2:15" ht="17.25" thickTop="1">
       <c r="B26" s="26"/>
       <c r="C26" s="22">
         <v>16</v>
@@ -7104,7 +7289,7 @@
       <c r="H26" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="51" t="s">
+      <c r="I26" s="49" t="s">
         <v>371</v>
       </c>
       <c r="J26" s="23" t="s">
@@ -7117,12 +7302,15 @@
         <v>242</v>
       </c>
       <c r="M26" s="23"/>
-      <c r="N26" s="50" t="str">
+      <c r="N26" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="O26" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(16, '핸디스틱 무선 청소기 ', 'LG ', 11, '/images/bonus/b16.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="17.25" thickBot="1">
+    <row r="27" spans="2:15" ht="17.25" thickBot="1">
       <c r="B27" s="26"/>
       <c r="C27" s="22">
         <v>17</v>
@@ -7142,7 +7330,7 @@
       <c r="H27" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="50" t="s">
         <v>372</v>
       </c>
       <c r="J27" s="23" t="s">
@@ -7155,12 +7343,15 @@
         <v>242</v>
       </c>
       <c r="M27" s="23"/>
-      <c r="N27" s="50" t="str">
+      <c r="N27" s="55" t="s">
+        <v>399</v>
+      </c>
+      <c r="O27" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(17, '삼성 노트북', '삼성', 12, '/images/bonus/b17.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="17.25" thickTop="1">
+    <row r="28" spans="2:15" ht="17.25" thickTop="1">
       <c r="B28" s="26"/>
       <c r="C28" s="22">
         <v>18</v>
@@ -7180,7 +7371,7 @@
       <c r="H28" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="51" t="s">
+      <c r="I28" s="49" t="s">
         <v>373</v>
       </c>
       <c r="J28" s="23" t="s">
@@ -7193,12 +7384,15 @@
         <v>242</v>
       </c>
       <c r="M28" s="23"/>
-      <c r="N28" s="50" t="str">
+      <c r="N28" s="55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O28" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(18, 'LG게이밍노트북', 'LG', 13, '/images/bonus/b18.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="17.25" thickBot="1">
+    <row r="29" spans="2:15" ht="17.25" thickBot="1">
       <c r="B29" s="26"/>
       <c r="C29" s="22">
         <v>19</v>
@@ -7218,7 +7412,7 @@
       <c r="H29" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="52" t="s">
+      <c r="I29" s="50" t="s">
         <v>374</v>
       </c>
       <c r="J29" s="23" t="s">
@@ -7231,12 +7425,15 @@
         <v>242</v>
       </c>
       <c r="M29" s="23"/>
-      <c r="N29" s="50" t="str">
+      <c r="N29" s="55" t="s">
+        <v>398</v>
+      </c>
+      <c r="O29" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(19, '전자 드럼 세탁기 14KG', 'LG', 14, '/images/bonus/b19.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="17.25" thickTop="1">
+    <row r="30" spans="2:15" ht="17.25" thickTop="1">
       <c r="B30" s="26"/>
       <c r="C30" s="22">
         <v>20</v>
@@ -7256,7 +7453,7 @@
       <c r="H30" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="51" t="s">
+      <c r="I30" s="49" t="s">
         <v>375</v>
       </c>
       <c r="J30" s="23" t="s">
@@ -7269,12 +7466,15 @@
         <v>242</v>
       </c>
       <c r="M30" s="23"/>
-      <c r="N30" s="50" t="str">
+      <c r="N30" s="55" t="s">
+        <v>397</v>
+      </c>
+      <c r="O30" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(20, '무선 청소기 V8', '다이슨', 15, '/images/bonus/b20.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="17.25" thickBot="1">
+    <row r="31" spans="2:15" ht="17.25" thickBot="1">
       <c r="B31" s="26"/>
       <c r="C31" s="22">
         <v>21</v>
@@ -7294,7 +7494,7 @@
       <c r="H31" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I31" s="52" t="s">
+      <c r="I31" s="50" t="s">
         <v>376</v>
       </c>
       <c r="J31" s="23" t="s">
@@ -7307,12 +7507,15 @@
         <v>242</v>
       </c>
       <c r="M31" s="23"/>
-      <c r="N31" s="50" t="str">
+      <c r="N31" s="55" t="s">
+        <v>415</v>
+      </c>
+      <c r="O31" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(21, '갤럭시 8+ 64G', '삼성', 15, '/images/bonus/b21.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="17.25" thickTop="1">
+    <row r="32" spans="2:15" ht="17.25" thickTop="1">
       <c r="B32" s="26"/>
       <c r="C32" s="22">
         <v>22</v>
@@ -7332,7 +7535,7 @@
       <c r="H32" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="51" t="s">
+      <c r="I32" s="49" t="s">
         <v>377</v>
       </c>
       <c r="J32" s="23" t="s">
@@ -7345,12 +7548,15 @@
         <v>242</v>
       </c>
       <c r="M32" s="23"/>
-      <c r="N32" s="50" t="str">
+      <c r="N32" s="55" t="s">
+        <v>396</v>
+      </c>
+      <c r="O32" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(22, 'SK-II LXP 풀 라인업 세트', 'sk2 ', 16, '/images/bonus/b22.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="17.25" thickBot="1">
+    <row r="33" spans="2:15" ht="17.25" thickBot="1">
       <c r="B33" s="26"/>
       <c r="C33" s="22">
         <v>23</v>
@@ -7370,7 +7576,7 @@
       <c r="H33" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="52" t="s">
+      <c r="I33" s="50" t="s">
         <v>378</v>
       </c>
       <c r="J33" s="23" t="s">
@@ -7383,12 +7589,15 @@
         <v>242</v>
       </c>
       <c r="M33" s="23"/>
-      <c r="N33" s="50" t="str">
+      <c r="N33" s="55" t="s">
+        <v>394</v>
+      </c>
+      <c r="O33" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(23, '아이폰 x', 'APPLE', 16, '/images/bonus/b23.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="17.25" thickTop="1">
+    <row r="34" spans="2:15" ht="17.25" thickTop="1">
       <c r="B34" s="26"/>
       <c r="C34" s="22">
         <v>24</v>
@@ -7408,7 +7617,7 @@
       <c r="H34" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I34" s="51" t="s">
+      <c r="I34" s="49" t="s">
         <v>379</v>
       </c>
       <c r="J34" s="23" t="s">
@@ -7421,12 +7630,15 @@
         <v>242</v>
       </c>
       <c r="M34" s="23"/>
-      <c r="N34" s="50" t="str">
+      <c r="N34" s="55" t="s">
+        <v>395</v>
+      </c>
+      <c r="O34" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(24, 'DIOS 양문형 냉장고', 'LG', 16, '/images/bonus/b24.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="17.25" thickBot="1">
+    <row r="35" spans="2:15" ht="17.25" thickBot="1">
       <c r="B35" s="26"/>
       <c r="C35" s="22">
         <v>25</v>
@@ -7446,7 +7658,7 @@
       <c r="H35" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I35" s="50" t="s">
         <v>380</v>
       </c>
       <c r="J35" s="23" t="s">
@@ -7459,12 +7671,15 @@
         <v>242</v>
       </c>
       <c r="M35" s="23"/>
-      <c r="N35" s="50" t="str">
+      <c r="N35" s="55" t="s">
+        <v>393</v>
+      </c>
+      <c r="O35" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(25, '라벨루쏘 토트 백', 'GUCCI', 17, '/images/bonus/b25.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="17.25" thickTop="1">
+    <row r="36" spans="2:15" ht="17.25" thickTop="1">
       <c r="B36" s="26"/>
       <c r="C36" s="22">
         <v>26</v>
@@ -7484,7 +7699,7 @@
       <c r="H36" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="49" t="s">
         <v>381</v>
       </c>
       <c r="J36" s="23" t="s">
@@ -7497,12 +7712,15 @@
         <v>242</v>
       </c>
       <c r="M36" s="23"/>
-      <c r="N36" s="50" t="str">
+      <c r="N36" s="55" t="s">
+        <v>392</v>
+      </c>
+      <c r="O36" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(26, 'TV 곡면형 65인치', '삼성', 17, '/images/bonus/b26.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="17.25" thickBot="1">
+    <row r="37" spans="2:15" ht="17.25" thickBot="1">
       <c r="B37" s="26"/>
       <c r="C37" s="22">
         <v>27</v>
@@ -7522,7 +7740,7 @@
       <c r="H37" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="50" t="s">
         <v>382</v>
       </c>
       <c r="J37" s="23" t="s">
@@ -7535,12 +7753,15 @@
         <v>242</v>
       </c>
       <c r="M37" s="23"/>
-      <c r="N37" s="50" t="str">
+      <c r="N37" s="55" t="s">
+        <v>391</v>
+      </c>
+      <c r="O37" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(27, '가죽 미니 탑 핸들 백', 'GUCCI', 18, '/images/bonus/b27.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="17.25" thickTop="1">
+    <row r="38" spans="2:15" ht="17.25" thickTop="1">
       <c r="B38" s="26"/>
       <c r="C38" s="22">
         <v>28</v>
@@ -7560,7 +7781,7 @@
       <c r="H38" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="I38" s="49" t="s">
         <v>383</v>
       </c>
       <c r="J38" s="23" t="s">
@@ -7573,12 +7794,15 @@
         <v>242</v>
       </c>
       <c r="M38" s="23"/>
-      <c r="N38" s="50" t="str">
+      <c r="N38" s="57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O38" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(28, '클래식 블랙 캐비어', 'CHANEL', 19, '/images/bonus/b28.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:15">
       <c r="B39" s="26"/>
       <c r="C39" s="22">
         <v>29</v>
@@ -7598,7 +7822,7 @@
       <c r="H39" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="52" t="s">
+      <c r="I39" s="50" t="s">
         <v>384</v>
       </c>
       <c r="J39" s="23" t="s">
@@ -7611,99 +7835,76 @@
         <v>242</v>
       </c>
       <c r="M39" s="23"/>
-      <c r="N39" s="50" t="str">
+      <c r="N39" s="55" t="s">
+        <v>389</v>
+      </c>
+      <c r="O39" s="48" t="str">
         <f t="shared" si="0"/>
         <v>bonusItemInfo.push(createBonusItemInfo(29, '2017 스토닉 자동차', '기아자동차', 20, '/images/bonus/b29.png', [1001,1004,1008,2003,2002,2004,3001,3002,3003]));</v>
       </c>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:15">
       <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
+      <c r="C40" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="27" t="s">
+        <v>114</v>
+      </c>
       <c r="G40" s="27"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" s="26"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" s="26"/>
-      <c r="C44" s="27" t="s">
+      <c r="H40" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="I40" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
+      <c r="J40" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27" t="s">
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27" t="s">
-        <v>114</v>
-      </c>
+      <c r="N40" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N39" r:id="rId1"/>
+    <hyperlink ref="N38" r:id="rId2"/>
+    <hyperlink ref="N37" r:id="rId3"/>
+    <hyperlink ref="N36" r:id="rId4"/>
+    <hyperlink ref="N35" r:id="rId5"/>
+    <hyperlink ref="N33" r:id="rId6"/>
+    <hyperlink ref="N34" r:id="rId7"/>
+    <hyperlink ref="N32" r:id="rId8"/>
+    <hyperlink ref="N30" r:id="rId9"/>
+    <hyperlink ref="N29" r:id="rId10"/>
+    <hyperlink ref="N27" r:id="rId11"/>
+    <hyperlink ref="N26" r:id="rId12"/>
+    <hyperlink ref="N24" r:id="rId13"/>
+    <hyperlink ref="N25" r:id="rId14"/>
+    <hyperlink ref="N23" r:id="rId15"/>
+    <hyperlink ref="N22" r:id="rId16"/>
+    <hyperlink ref="N21" r:id="rId17"/>
+    <hyperlink ref="N17" r:id="rId18"/>
+    <hyperlink ref="N15" r:id="rId19"/>
+    <hyperlink ref="N16" r:id="rId20"/>
+    <hyperlink ref="N13" r:id="rId21"/>
+    <hyperlink ref="N14" r:id="rId22"/>
+    <hyperlink ref="N10" r:id="rId23"/>
+    <hyperlink ref="N11" r:id="rId24"/>
+    <hyperlink ref="N12" r:id="rId25"/>
+    <hyperlink ref="N28"/>
+    <hyperlink ref="N31" r:id="rId26"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -7749,7 +7950,7 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>284</v>
       </c>
       <c r="C8" s="33">
@@ -7760,7 +7961,7 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="48"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="33">
         <v>2</v>
       </c>
@@ -7769,7 +7970,7 @@
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="48"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="33">
         <v>3</v>
       </c>
@@ -7778,7 +7979,7 @@
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="48"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="33">
         <v>4</v>
       </c>
@@ -7787,7 +7988,7 @@
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="48"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="33">
         <v>5</v>
       </c>
@@ -7858,7 +8059,7 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="52" t="s">
         <v>249</v>
       </c>
       <c r="C5" s="42">
@@ -7875,7 +8076,7 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="48"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="42">
         <v>2</v>
       </c>
@@ -7890,7 +8091,7 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="48"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="42">
         <v>3</v>
       </c>
@@ -7905,7 +8106,7 @@
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="48"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="42">
         <v>4</v>
       </c>
@@ -7920,7 +8121,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" ht="27">
-      <c r="B9" s="48"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="42">
         <v>5</v>
       </c>
@@ -7935,7 +8136,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="48"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="42">
         <v>6</v>
       </c>
@@ -7950,7 +8151,7 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="48"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="42">
         <v>7</v>
       </c>
@@ -7965,7 +8166,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="27">
-      <c r="B12" s="48"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="42">
         <v>8</v>
       </c>
@@ -7980,7 +8181,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="67.5">
-      <c r="B13" s="48"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="42">
         <v>9</v>
       </c>
@@ -7995,7 +8196,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="48"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="42">
         <v>10</v>
       </c>
@@ -8010,7 +8211,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="27">
-      <c r="B15" s="48"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="42">
         <v>11</v>
       </c>
@@ -8025,7 +8226,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="48"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="42">
         <v>12</v>
       </c>
@@ -8040,7 +8241,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="42">
         <v>13</v>
       </c>
@@ -8055,7 +8256,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="48"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="42">
         <v>14</v>
       </c>
@@ -8070,7 +8271,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="40.5">
-      <c r="B19" s="48"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="42">
         <v>15</v>
       </c>
@@ -8085,7 +8286,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="27">
-      <c r="B20" s="48"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="42">
         <v>16</v>
       </c>
@@ -8100,7 +8301,7 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="48"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="42">
         <v>17</v>
       </c>
@@ -8115,7 +8316,7 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="48"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="42">
         <v>18</v>
       </c>
@@ -8130,7 +8331,7 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="48"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="42">
         <v>19</v>
       </c>
@@ -8145,7 +8346,7 @@
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="48"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="42">
         <v>20</v>
       </c>
@@ -8160,7 +8361,7 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="48"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="42">
         <v>21</v>
       </c>
